--- a/testing/test_files/test_genome_annotation4.xlsx
+++ b/testing/test_files/test_genome_annotation4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1985937\Documents\BI_Sum_2021\EC-Scrape\testing\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8E53D44-6707-4FE1-822E-A0D1CD72816E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D90E9D-033F-4C39-806E-7A616090496C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1095" yWindow="1095" windowWidth="19710" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Genome Annotation" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="487">
   <si>
     <t>contig_id</t>
   </si>
@@ -113,18 +113,6 @@
     <t>MAETVVPITTDNLEQCIELYIKVFNSEPWNESWTYETAKERLTDLLHTPKFTGFFWKNNETPIGFIAGNSKKTYHIKE</t>
   </si>
   <si>
-    <t>fig|6666666.783512.peg.14</t>
-  </si>
-  <si>
-    <t>contig_1_15824_16219</t>
-  </si>
-  <si>
-    <t>atgaagttttatattgcatccagctttaaaaatatcgatgcggttagatatgtaagtgaaaagctaaaaagcaagggatttattcatacatatgattggactcaaaatgaaagagcttcgaccattgaacagctaaaagaaataggtcaacgagagaaagaggctgtaatggaagctgattttctcatcgttttacttccagcaggaaaaggaagtcatattgaatttggaatagctcttggacatggcaaaaaaatttatctttactcaccaaatgacgatgtgaacaactttgaaacgaccagcacgttttatcatttacctgaagttgaaaaatgtattggaacactcgaagagttggttgatattgtttctgtgaattcaaaaatttattga</t>
-  </si>
-  <si>
-    <t>MKFYIASSFKNIDAVRYVSEKLKSKGFIHTYDWTQNERASTIEQLKEIGQREKEAVMEADFLIVLLPAGKGSHIEFGIALGHGKKIYLYSPNDDVNNFETTSTFYHLPEVEKCIGTLEELVDIVSVNSKIY</t>
-  </si>
-  <si>
     <t>fig|6666666.783512.peg.15</t>
   </si>
   <si>
@@ -339,18 +327,6 @@
   </si>
   <si>
     <t>MKKLNWNERCIQHGLEQLPVVKDRRAKEDIYERLERARRAARWKRRWLPAVASAAVLVAAAFAAPRLIIPEPADKQVASSSAVQTWRANDVSSHPEAMMATEVSNEAVSKVVIALPDRKIGMVVPVVVPLFGRFALEERLTAALDELNRSSLRSAAKWLDGITMAPEAGNRGTWAVRVPADHRIFTADREEQQLFFMAVVETVRQMGGQNIRFFTGAEEGLDLSASGPLKTTKVDQQKRIYYINRLSSFGHAVLISVPSSARSFSEAVQRMKKPGGRGLEPAIPPEVKVDHVHASGRHATVSLRFSASLDAADAARMAEAILLTAKEFGLLEVTLAANGRSSIGPYPLGERIKVPAGPNEELLTAGGR</t>
-  </si>
-  <si>
-    <t>fig|6666666.783512.peg.857</t>
-  </si>
-  <si>
-    <t>contig_1_629696_629812</t>
-  </si>
-  <si>
-    <t>atggtgcgaagaaggaaggaggaatggagaatggatgatgtcatgagacggatcctagcggttgcgggtgtggcagtatgcgtcggtctgttgtttctcgtcggtgccaacggatga</t>
-  </si>
-  <si>
-    <t>MVRRRKEEWRMDDVMRRILAVAGVAVCVGLLFLVGANG</t>
   </si>
   <si>
     <t>fig|6666666.783512.peg.858</t>
@@ -1551,9 +1527,6 @@
   </si>
   <si>
     <t>hypothetical protein (predicted: aminodeoxychorismate lyase [Geobacillus] (predicted EC 4.1.3.38))</t>
-  </si>
-  <si>
-    <t>hypothetical</t>
   </si>
 </sst>
 </file>
@@ -2061,11 +2034,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane activePane="bottomRight" state="frozen"/>
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2144,7 +2117,7 @@
         <v>19</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>495</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
@@ -2176,7 +2149,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -2199,22 +2172,25 @@
         <v>27</v>
       </c>
       <c r="E4">
-        <v>15824</v>
+        <v>16422</v>
       </c>
       <c r="F4">
-        <v>16219</v>
+        <v>17456</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2222,34 +2198,34 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E5">
-        <v>16422</v>
+        <v>227659</v>
       </c>
       <c r="F5">
-        <v>17456</v>
+        <v>227919</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2257,28 +2233,28 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E6">
-        <v>227659</v>
+        <v>227892</v>
       </c>
       <c r="F6">
-        <v>227919</v>
+        <v>228431</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L6" t="s">
         <v>47</v>
@@ -2292,34 +2268,31 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E7">
-        <v>227892</v>
+        <v>447604</v>
       </c>
       <c r="F7">
-        <v>228431</v>
+        <v>447167</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" t="s">
-        <v>46</v>
+        <v>19</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>486</v>
       </c>
       <c r="L7" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="M7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2336,16 +2309,16 @@
         <v>63</v>
       </c>
       <c r="E8">
-        <v>447604</v>
+        <v>614116</v>
       </c>
       <c r="F8">
-        <v>447167</v>
+        <v>615033</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="L8" t="s">
         <v>64</v>
@@ -2359,31 +2332,31 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E9">
-        <v>614116</v>
+        <v>625689</v>
       </c>
       <c r="F9">
-        <v>615033</v>
+        <v>626060</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="L9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2400,22 +2373,22 @@
         <v>74</v>
       </c>
       <c r="E10">
-        <v>625689</v>
+        <v>626075</v>
       </c>
       <c r="F10">
-        <v>626060</v>
+        <v>626653</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="36" t="s">
-        <v>492</v>
+      <c r="H10" t="s">
+        <v>75</v>
       </c>
       <c r="L10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2423,31 +2396,31 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E11">
-        <v>626075</v>
+        <v>626650</v>
       </c>
       <c r="F11">
-        <v>626653</v>
+        <v>627276</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2455,31 +2428,31 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E12">
-        <v>626650</v>
+        <v>627276</v>
       </c>
       <c r="F12">
-        <v>627276</v>
+        <v>627845</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2487,31 +2460,31 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E13">
-        <v>627276</v>
+        <v>627961</v>
       </c>
       <c r="F13">
-        <v>627845</v>
+        <v>628506</v>
       </c>
       <c r="G13" t="s">
         <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2519,31 +2492,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E14">
-        <v>627961</v>
+        <v>628484</v>
       </c>
       <c r="F14">
-        <v>628506</v>
+        <v>629590</v>
       </c>
       <c r="G14" t="s">
         <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2551,25 +2524,28 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E15">
-        <v>628484</v>
+        <v>629896</v>
       </c>
       <c r="F15">
-        <v>629590</v>
+        <v>630708</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>99</v>
+        <v>36</v>
+      </c>
+      <c r="K15" t="s">
+        <v>37</v>
       </c>
       <c r="L15" t="s">
         <v>100</v>
@@ -2592,22 +2568,25 @@
         <v>103</v>
       </c>
       <c r="E16">
-        <v>629696</v>
+        <v>630994</v>
       </c>
       <c r="F16">
-        <v>629812</v>
+        <v>630896</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>104</v>
+      </c>
+      <c r="K16" t="s">
+        <v>105</v>
       </c>
       <c r="L16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2615,34 +2594,34 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E17">
-        <v>629896</v>
+        <v>632468</v>
       </c>
       <c r="F17">
-        <v>630708</v>
+        <v>631080</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="K17" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="L17" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2650,135 +2629,63 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E18">
-        <v>630994</v>
+        <v>813318</v>
       </c>
       <c r="F18">
-        <v>630896</v>
+        <v>813665</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K18" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="L18" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>117</v>
-      </c>
-      <c r="E19">
-        <v>632468</v>
-      </c>
-      <c r="F19">
-        <v>631080</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" t="s">
-        <v>112</v>
-      </c>
-      <c r="K19" t="s">
-        <v>113</v>
-      </c>
-      <c r="L19" t="s">
-        <v>118</v>
-      </c>
-      <c r="M19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20">
-        <v>813318</v>
-      </c>
-      <c r="F20">
-        <v>813665</v>
-      </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" t="s">
-        <v>127</v>
-      </c>
-      <c r="K20" t="s">
-        <v>128</v>
-      </c>
-      <c r="L20" t="s">
-        <v>129</v>
-      </c>
-      <c r="M20" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://rast.nmpdr.org//seedviewer.cgi?page=Annotation&amp;feature=fig|6666666.783512.peg.2" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B3" r:id="rId2" display="http://rast.nmpdr.org//seedviewer.cgi?page=Annotation&amp;feature=fig|6666666.783512.peg.13" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" display="http://rast.nmpdr.org//seedviewer.cgi?page=Annotation&amp;feature=fig|6666666.783512.peg.14" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" display="http://rast.nmpdr.org//seedviewer.cgi?page=Annotation&amp;feature=fig|6666666.783512.peg.15" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" display="http://rast.nmpdr.org//seedviewer.cgi?page=Annotation&amp;feature=fig|6666666.783512.peg.296" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId6" display="http://rast.nmpdr.org//seedviewer.cgi?page=Annotation&amp;feature=fig|6666666.783512.peg.297" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B8" r:id="rId7" display="http://rast.nmpdr.org//seedviewer.cgi?page=Annotation&amp;feature=fig|6666666.783512.peg.602" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B9" r:id="rId8" display="http://rast.nmpdr.org//seedviewer.cgi?page=Annotation&amp;feature=fig|6666666.783512.peg.835" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B10" r:id="rId9" display="http://rast.nmpdr.org//seedviewer.cgi?page=Annotation&amp;feature=fig|6666666.783512.peg.851" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B11" r:id="rId10" display="http://rast.nmpdr.org//seedviewer.cgi?page=Annotation&amp;feature=fig|6666666.783512.peg.852" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B12" r:id="rId11" display="http://rast.nmpdr.org//seedviewer.cgi?page=Annotation&amp;feature=fig|6666666.783512.peg.853" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B13" r:id="rId12" display="http://rast.nmpdr.org//seedviewer.cgi?page=Annotation&amp;feature=fig|6666666.783512.peg.854" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B14" r:id="rId13" display="http://rast.nmpdr.org//seedviewer.cgi?page=Annotation&amp;feature=fig|6666666.783512.peg.855" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B15" r:id="rId14" display="http://rast.nmpdr.org//seedviewer.cgi?page=Annotation&amp;feature=fig|6666666.783512.peg.856" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B16" r:id="rId15" display="http://rast.nmpdr.org//seedviewer.cgi?page=Annotation&amp;feature=fig|6666666.783512.peg.857" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B17" r:id="rId16" display="http://rast.nmpdr.org//seedviewer.cgi?page=Annotation&amp;feature=fig|6666666.783512.peg.858" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B18" r:id="rId17" display="http://rast.nmpdr.org//seedviewer.cgi?page=Annotation&amp;feature=fig|6666666.783512.peg.859" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B19" r:id="rId18" display="http://rast.nmpdr.org//seedviewer.cgi?page=Annotation&amp;feature=fig|6666666.783512.peg.860" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B20" r:id="rId19" display="http://rast.nmpdr.org//seedviewer.cgi?page=Annotation&amp;feature=fig|6666666.783512.peg.1111" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="H9" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="H10" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="H3" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="H8" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B4" r:id="rId3" display="http://rast.nmpdr.org//seedviewer.cgi?page=Annotation&amp;feature=fig|6666666.783512.peg.15" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B5" r:id="rId4" display="http://rast.nmpdr.org//seedviewer.cgi?page=Annotation&amp;feature=fig|6666666.783512.peg.296" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId5" display="http://rast.nmpdr.org//seedviewer.cgi?page=Annotation&amp;feature=fig|6666666.783512.peg.297" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B7" r:id="rId6" display="http://rast.nmpdr.org//seedviewer.cgi?page=Annotation&amp;feature=fig|6666666.783512.peg.602" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B8" r:id="rId7" display="http://rast.nmpdr.org//seedviewer.cgi?page=Annotation&amp;feature=fig|6666666.783512.peg.835" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B9" r:id="rId8" display="http://rast.nmpdr.org//seedviewer.cgi?page=Annotation&amp;feature=fig|6666666.783512.peg.851" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B10" r:id="rId9" display="http://rast.nmpdr.org//seedviewer.cgi?page=Annotation&amp;feature=fig|6666666.783512.peg.852" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B11" r:id="rId10" display="http://rast.nmpdr.org//seedviewer.cgi?page=Annotation&amp;feature=fig|6666666.783512.peg.853" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B12" r:id="rId11" display="http://rast.nmpdr.org//seedviewer.cgi?page=Annotation&amp;feature=fig|6666666.783512.peg.854" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B13" r:id="rId12" display="http://rast.nmpdr.org//seedviewer.cgi?page=Annotation&amp;feature=fig|6666666.783512.peg.855" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B14" r:id="rId13" display="http://rast.nmpdr.org//seedviewer.cgi?page=Annotation&amp;feature=fig|6666666.783512.peg.856" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B15" r:id="rId14" display="http://rast.nmpdr.org//seedviewer.cgi?page=Annotation&amp;feature=fig|6666666.783512.peg.858" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B16" r:id="rId15" display="http://rast.nmpdr.org//seedviewer.cgi?page=Annotation&amp;feature=fig|6666666.783512.peg.859" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B17" r:id="rId16" display="http://rast.nmpdr.org//seedviewer.cgi?page=Annotation&amp;feature=fig|6666666.783512.peg.860" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B18" r:id="rId17" display="http://rast.nmpdr.org//seedviewer.cgi?page=Annotation&amp;feature=fig|6666666.783512.peg.1111" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="H8" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="H9" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="H3" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="H7" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
   </hyperlinks>
   <printOptions gridLines="1" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId24"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId22"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -2808,10 +2715,10 @@
   <sheetData>
     <row r="1" spans="1:11" ht="153">
       <c r="A1" s="10" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D1" s="22"/>
       <c r="F1" s="15"/>
@@ -2825,59 +2732,59 @@
     <row r="3" spans="1:11" ht="191.25">
       <c r="A3" s="10"/>
       <c r="B3" s="11" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D3" s="22"/>
       <c r="F3" s="15"/>
     </row>
     <row r="5" spans="1:11" ht="25.5">
       <c r="B5" s="14" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="38.25">
       <c r="B6" s="32" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H6" s="4"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="38.25">
       <c r="B7" s="32" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="F7" s="17"/>
       <c r="H7" s="4"/>
@@ -2885,16 +2792,16 @@
     </row>
     <row r="8" spans="1:11" ht="51">
       <c r="B8" s="32" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F8" s="17"/>
       <c r="H8" s="4"/>
@@ -2903,16 +2810,16 @@
     </row>
     <row r="9" spans="1:11" ht="51">
       <c r="B9" s="32" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F9" s="17"/>
       <c r="H9" s="4"/>
@@ -2922,16 +2829,16 @@
     </row>
     <row r="10" spans="1:11" ht="51">
       <c r="B10" s="32" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F10" s="17"/>
       <c r="H10" s="4"/>
@@ -2941,16 +2848,16 @@
     </row>
     <row r="11" spans="1:11" ht="38.25">
       <c r="B11" s="32" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F11" s="17"/>
       <c r="H11" s="4"/>
@@ -2960,16 +2867,16 @@
     </row>
     <row r="12" spans="1:11" ht="38.25">
       <c r="B12" s="32" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F12" s="17"/>
       <c r="H12" s="4"/>
@@ -2979,16 +2886,16 @@
     </row>
     <row r="13" spans="1:11" ht="38.25">
       <c r="B13" s="32" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F13" s="17"/>
       <c r="H13" s="4"/>
@@ -2998,19 +2905,19 @@
     </row>
     <row r="14" spans="1:11" ht="38.25">
       <c r="B14" s="32" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H14" s="4"/>
       <c r="J14" s="5"/>
@@ -3018,19 +2925,19 @@
     </row>
     <row r="15" spans="1:11" ht="38.25">
       <c r="B15" s="32" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H15" s="4"/>
       <c r="J15" s="4"/>
@@ -3038,2758 +2945,2758 @@
     </row>
     <row r="16" spans="1:11" ht="25.5">
       <c r="B16" s="32" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="38.25">
       <c r="B17" s="32" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="38.25">
       <c r="B18" s="32" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="38.25">
       <c r="B19" s="32" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="51">
       <c r="B20" s="32" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="51">
       <c r="B21" s="32" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="25.5">
       <c r="B22" s="32" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="38.25">
       <c r="B23" s="32" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C23" s="32"/>
       <c r="D23" s="26" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H23" s="4"/>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="2:10" ht="25.5">
       <c r="B24" s="32" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="25.5">
       <c r="B25" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="25.5">
       <c r="B26" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="25.5">
       <c r="B27" s="32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="25.5">
       <c r="B28" s="32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="25.5">
       <c r="B29" s="32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="38.25">
       <c r="B30" s="32" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="38.25">
       <c r="B31" s="32" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F31" s="28" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="38.25">
       <c r="B32" s="32" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="76.5">
       <c r="B33" s="32" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="51">
       <c r="B34" s="32" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D34" s="19"/>
       <c r="E34" s="11" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H34" s="4"/>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="2:10" ht="76.5">
       <c r="B35" s="32" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="11" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F35" s="28" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="76.5">
       <c r="B36" s="32" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="11" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F36" s="28" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="38.25">
       <c r="B37" s="32" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="38.25">
       <c r="B38" s="32" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="2:10" ht="38.25">
       <c r="B39" s="33" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="40" spans="2:10" ht="38.25">
       <c r="B40" s="32" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="51">
       <c r="B41" s="32" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="51">
       <c r="B42" s="32" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="51">
       <c r="B43" s="32" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="38.25">
       <c r="B44" s="32" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="38.25">
       <c r="B45" s="32" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="25.5">
       <c r="B46" s="32" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="51">
       <c r="B47" s="32" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="25.5">
       <c r="B48" s="32" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="38.25">
       <c r="B49" s="32" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="63.75">
       <c r="B50" s="32" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="63.75">
       <c r="B51" s="32" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="63.75">
       <c r="B52" s="32" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="51">
       <c r="B53" s="32" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="F53" s="28" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54" spans="2:6" ht="51">
       <c r="B54" s="32" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="55" spans="2:6" ht="25.5">
       <c r="B55" s="32" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="56" spans="2:6" ht="25.5">
       <c r="B56" s="32" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="25.5">
       <c r="B57" s="32" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="58" spans="2:6" ht="25.5">
       <c r="B58" s="32" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="59" spans="2:6" ht="51">
       <c r="B59" s="32" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60" spans="2:6" ht="51">
       <c r="B60" s="32" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="61" spans="2:6" ht="51">
       <c r="B61" s="32" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="62" spans="2:6" ht="25.5">
       <c r="B62" s="32" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F62" s="28" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="63" spans="2:6" ht="25.5">
       <c r="B63" s="32" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="64" spans="2:6" ht="25.5">
       <c r="B64" s="33" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F64" s="28" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="65" spans="2:10" ht="38.25">
       <c r="B65" s="33" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C65" s="32" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E65" s="35" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="66" spans="2:10" ht="25.5">
       <c r="B66" s="32" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E66" s="35" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="67" spans="2:10" ht="38.25">
       <c r="B67" s="32" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H67" s="4"/>
       <c r="J67" s="5"/>
     </row>
     <row r="68" spans="2:10" ht="38.25">
       <c r="B68" s="33" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="69" spans="2:10" ht="38.25">
       <c r="B69" s="32" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="F69" s="28" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="70" spans="2:10" ht="38.25">
       <c r="B70" s="32" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F70" s="28" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="71" spans="2:10" ht="38.25">
       <c r="B71" s="32" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="72" spans="2:10" ht="38.25">
       <c r="B72" s="32" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="73" spans="2:10" ht="89.25">
       <c r="B73" s="32" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E73" s="32" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="74" spans="2:10" ht="89.25">
       <c r="B74" s="32" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E74" s="32" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="75" spans="2:10" ht="89.25">
       <c r="B75" s="32" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E75" s="32" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="76" spans="2:10" ht="38.25">
       <c r="B76" s="33" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="2:10" ht="38.25">
       <c r="B77" s="32" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="78" spans="2:10" ht="38.25">
       <c r="B78" s="32" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C78" s="33" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="79" spans="2:10" ht="38.25">
       <c r="B79" s="32" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C79" s="32" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="80" spans="2:10" ht="38.25">
       <c r="B80" s="32" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="81" spans="2:6" ht="38.25">
       <c r="B81" s="32" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C81" s="33" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="82" spans="2:6" ht="38.25">
       <c r="B82" s="32" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="83" spans="2:6" ht="38.25">
       <c r="B83" s="32" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C83" s="32" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="84" spans="2:6" ht="63.75">
       <c r="B84" s="32" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C84" s="32" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="85" spans="2:6" ht="63.75">
       <c r="B85" s="32" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C85" s="32" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="86" spans="2:6" ht="38.25">
       <c r="B86" s="33" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C86" s="32" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="87" spans="2:6" ht="76.5">
       <c r="B87" s="32" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C87" s="32" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="88" spans="2:6" ht="76.5">
       <c r="B88" s="32" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C88" s="32" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="89" spans="2:6" ht="63.75">
       <c r="B89" s="32" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="90" spans="2:6" ht="25.5">
       <c r="B90" s="32" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E90" s="34" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="91" spans="2:6">
       <c r="B91" s="32" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E91" s="32" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="92" spans="2:6" ht="51">
       <c r="B92" s="32" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="93" spans="2:6" ht="38.25">
       <c r="B93" s="32" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C93" s="32" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="94" spans="2:6" ht="38.25">
       <c r="B94" s="33" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C94" s="32" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F94" s="28" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="38.25">
       <c r="B95" s="32" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C95" s="32" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="25.5">
       <c r="B96" s="32" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="97" spans="2:5" ht="38.25">
       <c r="B97" s="32" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C97" s="32" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="98" spans="2:5" ht="25.5">
       <c r="B98" s="32" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C98" s="33" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="99" spans="2:5" ht="38.25">
       <c r="B99" s="32" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="100" spans="2:5" ht="38.25">
       <c r="B100" s="32" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C100" s="32" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="101" spans="2:5" ht="25.5">
       <c r="B101" s="32" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C101" s="32" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="102" spans="2:5" ht="25.5">
       <c r="B102" s="32" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C102" s="32" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="103" spans="2:5" ht="25.5">
       <c r="B103" s="33" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C103" s="33" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D103" s="21" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="104" spans="2:5" ht="25.5">
       <c r="B104" s="32" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C104" s="32" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D104" s="21" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="105" spans="2:5" ht="25.5">
       <c r="B105" s="32" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C105" s="32" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="106" spans="2:5" ht="51">
       <c r="B106" s="32" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E106" s="14" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="107" spans="2:5" ht="38.25">
       <c r="B107" s="32" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="108" spans="2:5" ht="38.25">
       <c r="B108" s="32" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C108" s="32" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E108" s="14" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="109" spans="2:5" ht="25.5">
       <c r="B109" s="32" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C109" s="33" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E109" s="14" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="110" spans="2:5" ht="76.5">
       <c r="B110" s="32" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C110" s="32" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="E110" s="14" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="111" spans="2:5" ht="38.25">
       <c r="B111" s="32" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C111" s="32" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="E111" s="14" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="112" spans="2:5" ht="38.25">
       <c r="B112" s="32" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C112" s="33" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E112" s="14" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="113" spans="2:6" ht="38.25">
       <c r="B113" s="32" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="114" spans="2:6" ht="38.25">
       <c r="B114" s="32" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C114" s="32" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="E114" s="14" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="115" spans="2:6" ht="25.5">
       <c r="B115" s="33" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E115" s="30" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F115" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="116" spans="2:6" ht="25.5">
       <c r="B116" s="32" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E116" s="30" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="117" spans="2:6" ht="25.5">
       <c r="B117" s="32" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E117" s="30" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="118" spans="2:6" ht="25.5">
       <c r="B118" s="32" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="119" spans="2:6" ht="25.5">
       <c r="B119" s="33" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F119" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="120" spans="2:6" ht="25.5">
       <c r="B120" s="32" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="121" spans="2:6" ht="38.25">
       <c r="B121" s="32" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C121" s="32" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E121" s="14" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="122" spans="2:6" ht="38.25">
       <c r="B122" s="32" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C122" s="33" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E122" s="14" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="123" spans="2:6" ht="38.25">
       <c r="B123" s="33" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E123" s="14" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="124" spans="2:6" ht="63.75">
       <c r="B124" s="33" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="E124" s="14" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="125" spans="2:6" ht="38.25">
       <c r="B125" s="32" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C125" s="32" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="E125" s="14" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="126" spans="2:6" ht="38.25">
       <c r="B126" s="32" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C126" s="32" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="127" spans="2:6" ht="25.5">
       <c r="B127" s="32" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C127" s="32" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E127" s="14" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F127" s="18"/>
     </row>
     <row r="128" spans="2:6" ht="38.25">
       <c r="B128" s="32" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C128" s="32" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="E128" s="14" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="129" spans="2:6" ht="76.5">
       <c r="B129" s="32" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C129" s="32" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="E129" s="14" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="130" spans="2:6" ht="63.75">
       <c r="B130" s="32" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C130" s="33" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="E130" s="14" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="131" spans="2:6" ht="38.25">
       <c r="B131" s="32" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C131" s="32" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D131" s="27" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E131" s="14" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="132" spans="2:6" ht="76.5">
       <c r="B132" s="32" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E132" s="14" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="133" spans="2:6" ht="38.25">
       <c r="B133" s="32" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C133" s="32" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E133" s="14" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="134" spans="2:6" ht="38.25">
       <c r="B134" s="32" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C134" s="32" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D134" s="27" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E134" s="14" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="135" spans="2:6" ht="38.25">
       <c r="B135" s="33" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C135" s="32" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E135" s="14" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="136" spans="2:6" ht="38.25">
       <c r="B136" s="32" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E136" s="14" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="137" spans="2:6" ht="38.25">
       <c r="B137" s="32" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="E137" s="14" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="138" spans="2:6" ht="38.25">
       <c r="B138" s="32" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E138" s="14" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="139" spans="2:6" ht="25.5">
       <c r="B139" s="32" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C139" s="32" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="E139" s="14" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="140" spans="2:6" ht="25.5">
       <c r="B140" s="32" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C140" s="33" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E140" s="14" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="141" spans="2:6" ht="51">
       <c r="B141" s="32" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C141" s="32" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="E141" s="14" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F141" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="142" spans="2:6" ht="51">
       <c r="B142" s="33" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C142" s="32" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="F142" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="143" spans="2:6" ht="51">
       <c r="B143" s="32" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E143" s="14" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="F143" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="144" spans="2:6" ht="51">
       <c r="B144" s="32" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E144" s="14" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F144" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="145" spans="2:6" ht="51">
       <c r="B145" s="32" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C145" s="32" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E145" s="14" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="F145" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="146" spans="2:6" ht="38.25">
       <c r="B146" s="32" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C146" s="32" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="E146" s="14" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="147" spans="2:6" ht="76.5">
       <c r="B147" s="32" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E147" s="14" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="148" spans="2:6" ht="51">
       <c r="B148" s="32" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C148" s="32" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E148" s="14" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F148" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="149" spans="2:6" ht="25.5">
       <c r="B149" s="32" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E149" s="14" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F149" s="28" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="150" spans="2:6" ht="25.5">
       <c r="B150" s="32" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E150" s="14" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F150" s="28" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="151" spans="2:6" ht="38.25">
       <c r="B151" s="32" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E151" s="14" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F151" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="152" spans="2:6" ht="38.25">
       <c r="B152" s="32" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E152" s="14" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F152" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="153" spans="2:6" ht="51">
       <c r="B153" s="32" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E153" s="11" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F153" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="154" spans="2:6" ht="51">
       <c r="B154" s="32" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E154" s="14" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F154" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="155" spans="2:6" ht="51">
       <c r="B155" s="32" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E155" s="14" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F155" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="156" spans="2:6" ht="25.5">
       <c r="B156" s="32" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C156" s="32" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="E156" s="14" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="157" spans="2:6" ht="63.75">
       <c r="B157" s="32" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C157" s="32" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="E157" s="14" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="158" spans="2:6" ht="51">
       <c r="B158" s="32" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C158" s="32" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E158" s="14" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="159" spans="2:6" ht="25.5">
       <c r="B159" s="32" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C159" s="32" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E159" s="14" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F159" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="160" spans="2:6" ht="25.5">
       <c r="B160" s="32" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C160" s="32" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E160" s="14" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F160" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="161" spans="2:6" ht="38.25">
       <c r="B161" s="32" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C161" s="32" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E161" s="14" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="162" spans="2:6" ht="38.25">
       <c r="B162" s="32" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C162" s="32" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E162" s="14" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="163" spans="2:6" ht="216.75">
       <c r="B163" s="32" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E163" s="14" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F163" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="164" spans="2:6" ht="25.5">
       <c r="B164" s="32" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C164" s="32" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="D164" s="21" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E164" s="11" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="165" spans="2:6" ht="38.25">
       <c r="B165" s="32" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C165" s="32" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E165" s="14" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="166" spans="2:6" ht="25.5">
       <c r="B166" s="32" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C166" s="32" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E166" s="14" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="167" spans="2:6" ht="51">
       <c r="B167" s="32" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C167" s="32" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E167" s="14" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F167" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="168" spans="2:6" ht="51">
       <c r="B168" s="32" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C168" s="33" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E168" s="14" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F168" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="169" spans="2:6" ht="51">
       <c r="B169" s="32" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C169" s="33" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E169" s="14" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="F169" s="28" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="170" spans="2:6" ht="38.25">
       <c r="B170" s="33" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C170" s="32" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E170" s="14" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="F170" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="171" spans="2:6" ht="38.25">
       <c r="B171" s="32" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C171" s="32" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="E171" s="14" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F171" s="28" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="172" spans="2:6" ht="51">
       <c r="B172" s="32" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C172" s="32" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E172" s="14" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="F172" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="173" spans="2:6" ht="51">
       <c r="B173" s="32" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E173" s="14" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F173" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="174" spans="2:6" ht="51">
       <c r="B174" s="32" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E174" s="14" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F174" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="175" spans="2:6" ht="38.25">
       <c r="B175" s="33" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C175" s="32" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E175" s="14" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="176" spans="2:6" ht="38.25">
       <c r="B176" s="32" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C176" s="33" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E176" s="14" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="177" spans="2:6" ht="51">
       <c r="B177" s="32" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C177" s="32" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="E177" s="14" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="178" spans="2:6" ht="38.25">
       <c r="B178" s="32" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C178" s="33" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="E178" s="14" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="179" spans="2:6" ht="25.5">
       <c r="B179" s="32" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E179" s="14" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F179" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="180" spans="2:6" ht="51">
       <c r="B180" s="32" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E180" s="14" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F180" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="181" spans="2:6" ht="38.25">
       <c r="B181" s="32" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C181" s="32" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E181" s="14" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="182" spans="2:6" ht="38.25">
       <c r="B182" s="32" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C182" s="33" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E182" s="14" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="183" spans="2:6" ht="51">
       <c r="B183" s="32" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C183" s="33" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="E183" s="14" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="184" spans="2:6" ht="38.25">
       <c r="B184" s="32" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C184" s="32" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="E184" s="14" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="185" spans="2:6" ht="38.25">
       <c r="B185" s="32" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C185" s="32" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="E185" s="14" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F185" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="186" spans="2:6" ht="38.25">
       <c r="B186" s="32" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C186" s="32" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="E186" s="14" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="187" spans="2:6" ht="51">
       <c r="B187" s="32" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C187" s="33" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E187" s="14" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="188" spans="2:6" ht="38.25">
       <c r="B188" s="32" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C188" s="32" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E188" s="14" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="189" spans="2:6" ht="76.5">
       <c r="B189" s="32" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C189" s="32" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E189" s="14" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F189" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="190" spans="2:6" ht="51">
       <c r="B190" s="33" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C190" s="32" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E190" s="14" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="F190" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="191" spans="2:6" ht="51">
       <c r="B191" s="32" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C191" s="32" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="E191" s="14" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="F191" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="192" spans="2:6" ht="25.5">
       <c r="B192" s="32" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C192" s="33" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="E192" s="14" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="193" spans="2:6" ht="38.25">
       <c r="B193" s="32" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C193" s="32" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E193" s="14" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="194" spans="2:6" ht="25.5">
       <c r="B194" s="32" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C194" s="32" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E194" s="14" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F194" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="195" spans="2:6" ht="25.5">
       <c r="B195" s="33" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C195" s="33" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E195" s="11" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F195" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="196" spans="2:6" ht="38.25">
       <c r="B196" s="32" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C196" s="32" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="E196" s="14" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="197" spans="2:6" ht="38.25">
       <c r="B197" s="33" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E197" s="14" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F197" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="198" spans="2:6" ht="25.5">
       <c r="B198" s="33" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E198" s="14" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F198" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="199" spans="2:6" ht="25.5">
       <c r="B199" s="32" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E199" s="14" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F199" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="200" spans="2:6" ht="51">
       <c r="B200" s="32" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C200" s="32" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="E200" s="14" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="F200" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="201" spans="2:6" ht="38.25">
       <c r="B201" s="32" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C201" s="32" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="E201" s="14" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F201" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="202" spans="2:6" ht="38.25">
       <c r="B202" s="32" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C202" s="33" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="E202" s="14" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="203" spans="2:6" ht="25.5">
       <c r="B203" s="33" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C203" s="33" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="E203" s="14" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="204" spans="2:6" ht="38.25">
       <c r="B204" s="33" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C204" s="32" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="D204" s="27" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E204" s="14" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="205" spans="2:6" ht="63.75">
       <c r="B205" s="32" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C205" s="32" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E205" s="14" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="206" spans="2:6" ht="38.25">
       <c r="B206" s="32" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E206" s="14" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F206" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="207" spans="2:6" ht="25.5">
       <c r="B207" s="32" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E207" s="14" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F207" s="28" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="208" spans="2:6" ht="25.5">
       <c r="B208" s="32" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E208" s="14" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F208" s="28" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="209" spans="2:6" ht="38.25">
       <c r="B209" s="32" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D209" s="20" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E209" s="13" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F209" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="210" spans="2:6" ht="38.25">
       <c r="B210" s="32" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D210" s="20" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E210" s="11" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F210" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="211" spans="2:6" ht="38.25">
       <c r="B211" s="32" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C211" s="32" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D211" s="20" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E211" s="11" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="212" spans="2:6" ht="38.25">
       <c r="B212" s="32" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E212" s="11" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F212" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="213" spans="2:6" ht="38.25">
       <c r="B213" s="32" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E213" s="11" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F213" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="214" spans="2:6" ht="63.75">
       <c r="B214" s="33" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C214" s="32" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="E214" s="14" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F214" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="215" spans="2:6" ht="38.25">
       <c r="B215" s="32" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C215" s="32" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="E215" s="14" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F215" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="216" spans="2:6" ht="51">
       <c r="B216" s="33" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C216" s="32" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="E216" s="14" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F216" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="217" spans="2:6" ht="38.25">
       <c r="B217" s="32" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C217" s="32" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="E217" s="14" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="218" spans="2:6" ht="38.25">
       <c r="B218" s="33" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C218" s="32" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D218" s="20" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E218" s="11" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F218" s="18" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="219" spans="2:6" ht="38.25">
       <c r="B219" s="33" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C219" s="33" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D219" s="27" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E219" s="14" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="220" spans="2:6" ht="38.25">
       <c r="B220" s="33" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C220" s="32" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E220" s="14" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="221" spans="2:6" ht="38.25">
       <c r="B221" s="32" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C221" s="33" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="E221" s="14" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="222" spans="2:6" ht="38.25">
       <c r="B222" s="32" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C222" s="32" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E222" s="14" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="223" spans="2:6" ht="204">
       <c r="B223" s="32" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C223" s="32" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E223" s="14" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F223" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="224" spans="2:6" ht="89.25">
       <c r="B224" s="33" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C224" s="32" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="E224" s="14" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F224" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="225" spans="2:6" ht="89.25">
       <c r="B225" s="32" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C225" s="32" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="E225" s="14" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F225" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="226" spans="2:6" ht="89.25">
       <c r="B226" s="32" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C226" s="32" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="E226" s="14" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F226" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="227" spans="2:6" ht="51">
       <c r="B227" s="32" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C227" s="33" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E227" s="14" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="F227" s="28" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="228" spans="2:6" ht="51">
       <c r="B228" s="32" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C228" s="33" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E228" s="14" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="F228" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="229" spans="2:6" ht="76.5">
       <c r="B229" s="32" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C229" s="32" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="E229" s="14" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F229" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="230" spans="2:6" ht="76.5">
       <c r="B230" s="32" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C230" s="32" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="E230" s="11" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="231" spans="2:6" ht="76.5">
       <c r="B231" s="32" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C231" s="32" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="E231" s="14" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F231" s="28" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="232" spans="2:6" ht="25.5">
       <c r="B232" s="32" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C232" s="32" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="E232" s="14" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F232" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="233" spans="2:6" ht="38.25">
       <c r="B233" s="33" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C233" s="33" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="E233" s="14" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F233" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="234" spans="2:6" ht="38.25">
       <c r="B234" s="33" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C234" s="32" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="E234" s="14" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="235" spans="2:6" ht="38.25">
       <c r="B235" s="33" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C235" s="32" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="E235" s="14" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="236" spans="2:6" ht="76.5">
       <c r="B236" s="32" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C236" s="32" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="E236" s="14" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="237" spans="2:6" ht="51">
       <c r="B237" s="32" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C237" s="32" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="E237" s="14" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="238" spans="2:6" ht="51">
       <c r="B238" s="32" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C238" s="32" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="E238" s="14" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="239" spans="2:6" ht="63.75">
       <c r="B239" s="32" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C239" s="32" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E239" s="14" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F239" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="240" spans="2:6" ht="63.75">
       <c r="B240" s="32" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C240" s="32" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E240" s="14" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F240" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="241" spans="2:6" ht="76.5">
       <c r="B241" s="33" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C241" s="32" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="E241" s="14" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="F241" s="28" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="242" spans="2:6" ht="76.5">
       <c r="B242" s="33" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C242" s="32" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="E242" s="14" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F242" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="243" spans="2:6" ht="38.25">
       <c r="B243" s="33" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C243" s="32" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E243" s="14" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="F243" s="28" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="244" spans="2:6" ht="38.25">
       <c r="B244" s="32" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C244" s="32" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E244" s="14" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F244" s="28" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="245" spans="2:6" ht="38.25">
       <c r="B245" s="33" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C245" s="32" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="E245" s="14" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F245" s="18" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="246" spans="2:6" ht="25.5">
       <c r="B246" s="32" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C246" s="32" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="E246" s="14" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -6357,10 +6264,10 @@
   <sheetData>
     <row r="2" spans="2:7" ht="25.5">
       <c r="B2" s="10" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="22"/>
@@ -6378,19 +6285,19 @@
     <row r="4" spans="2:7" s="23" customFormat="1" ht="25.5">
       <c r="B4" s="31"/>
       <c r="C4" s="23" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
